--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -865,28 +865,28 @@
         <v>4.33</v>
       </c>
       <c r="O3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U3" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -895,10 +895,10 @@
         <v>1.06</v>
       </c>
       <c r="Y3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.88</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.93</v>
       </c>
       <c r="AA3" t="n">
         <v>2.75</v>
@@ -2314,27 +2314,27 @@
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J13" t="n">
         <v>4.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -2347,21 +2347,21 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
         <v>28</v>
@@ -2379,10 +2379,10 @@
         <v>45</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2391,7 +2391,7 @@
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AN13" t="n">
         <v>8.25</v>
@@ -2400,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>450</v>
@@ -2866,13 +2866,13 @@
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2883,10 +2883,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>19</v>
@@ -2918,10 +2918,10 @@
         <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH17" t="n">
         <v>34</v>
@@ -2933,13 +2933,13 @@
         <v>7</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -2951,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>26</v>
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3451,10 +3451,10 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3465,10 +3465,10 @@
         <v>1.29</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA21" t="n">
         <v>1.8</v>
@@ -3477,25 +3477,25 @@
         <v>1.91</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>6.5</v>
@@ -3507,19 +3507,19 @@
         <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
         <v>34</v>
@@ -3560,28 +3560,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
@@ -3701,30 +3701,30 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L23" t="n">
         <v>5.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.4</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -3737,30 +3737,30 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X23" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG23" t="n">
         <v>9.199999999999999</v>
@@ -3769,34 +3769,34 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AS23" t="n">
         <v>101</v>
@@ -3834,22 +3834,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L24" t="n">
         <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.2</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -3857,7 +3857,7 @@
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -3870,63 +3870,63 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="X24" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AE24" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH24" t="n">
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AK24" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
         <v>80</v>
       </c>
       <c r="AQ24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR24" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.91</v>
@@ -871,10 +871,10 @@
         <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
@@ -883,22 +883,22 @@
         <v>1.22</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AA3" t="n">
         <v>2.75</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1005,7 +1005,7 @@
         <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1056,7 +1056,7 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>17</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1354,46 +1354,46 @@
         <v>1.53</v>
       </c>
       <c r="AC6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>5.5</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1604,10 +1604,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1700,7 +1700,7 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="9">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1813,7 +1813,7 @@
         <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
@@ -1831,13 +1831,13 @@
         <v>67</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN9" t="n">
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -1887,80 +1887,80 @@
         <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M10" t="n">
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AB10" t="n">
         <v>1.57</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF10" t="n">
         <v>35</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.3</v>
@@ -1972,22 +1972,22 @@
         <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP10" t="n">
         <v>45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2025,25 +2025,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>1.72</v>
       </c>
       <c r="L11" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N11" t="n">
         <v>4.25</v>
@@ -2068,34 +2068,34 @@
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AB11" t="n">
         <v>1.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG11" t="n">
         <v>35</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>37</v>
       </c>
       <c r="AH11" t="n">
         <v>70</v>
@@ -2104,13 +2104,13 @@
         <v>4.25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="n">
         <v>6.1</v>
@@ -2119,16 +2119,16 @@
         <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>45</v>
       </c>
       <c r="AQ11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2577,22 +2577,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.22</v>
       </c>
       <c r="L15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2608,7 +2608,7 @@
         <v>1.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
         <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>70</v>
@@ -2642,10 +2642,10 @@
         <v>40</v>
       </c>
       <c r="AH15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>7.5</v>
@@ -2657,7 +2657,7 @@
         <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AN15" t="n">
         <v>8.25</v>
@@ -2666,7 +2666,7 @@
         <v>8.25</v>
       </c>
       <c r="AP15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>13</v>
@@ -2728,10 +2728,10 @@
         <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2742,10 +2742,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2854,10 +2854,10 @@
         <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2869,32 +2869,32 @@
         <v>2.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y17" t="n">
         <v>1.36</v>
@@ -2903,10 +2903,10 @@
         <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -2921,13 +2921,13 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>7</v>
@@ -2954,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -3010,10 +3010,10 @@
         <v>2.88</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
@@ -3024,22 +3024,22 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y18" t="n">
         <v>1.3</v>
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
@@ -3155,32 +3155,32 @@
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3204,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3213,7 +3213,7 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>6.5</v>
@@ -3225,10 +3225,10 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3443,26 +3443,26 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y21" t="n">
         <v>1.4</v>
@@ -3471,28 +3471,28 @@
         <v>2.75</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>10</v>
@@ -3525,7 +3525,7 @@
         <v>34</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -3581,7 +3581,7 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -3701,105 +3701,113 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="X23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AA23" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>11.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AQ23" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -3834,105 +3842,113 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="K24" t="n">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AA24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.8</v>
+        <v>8.75</v>
       </c>
       <c r="AE24" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.4</v>
+        <v>11.75</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>9.25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7.4</v>
+        <v>8.75</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AL24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>45</v>
       </c>
-      <c r="AM24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>35</v>
-      </c>
       <c r="AR24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AS24" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -722,16 +722,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
@@ -871,10 +871,10 @@
         <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
@@ -883,10 +883,10 @@
         <v>1.22</v>
       </c>
       <c r="U3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -1157,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1181,10 +1181,10 @@
         <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1396,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1604,10 +1604,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1640,10 +1640,10 @@
         <v>1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA8" t="n">
         <v>2.1</v>
@@ -1682,10 +1682,10 @@
         <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1884,56 +1884,56 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="H10" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="M10" t="n">
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA10" t="n">
         <v>2.25</v>
@@ -1942,25 +1942,25 @@
         <v>1.57</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF10" t="n">
         <v>35</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.3</v>
@@ -1972,13 +1972,13 @@
         <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AN10" t="n">
         <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>45</v>
@@ -2025,28 +2025,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>1.72</v>
       </c>
       <c r="L11" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N11" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.75</v>
@@ -2086,49 +2086,49 @@
         <v>5.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>32</v>
       </c>
       <c r="AG11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>200</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AN11" t="n">
         <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP11" t="n">
         <v>45</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2166,22 +2166,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2237,7 +2237,7 @@
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2252,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2270,13 +2270,13 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>21</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -2851,13 +2851,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2869,24 +2869,24 @@
         <v>2.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2915,10 +2915,10 @@
         <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
         <v>26</v>
@@ -2942,16 +2942,16 @@
         <v>8.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>23</v>
@@ -2992,28 +2992,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
@@ -3054,19 +3054,19 @@
         <v>2.38</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>23</v>
@@ -3084,10 +3084,10 @@
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3096,10 +3096,10 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>101</v>
@@ -3310,18 +3310,18 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y20" t="n">
         <v>1.44</v>
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H24" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="I24" t="n">
         <v>5.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K24" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
@@ -3863,65 +3863,65 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T24" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X24" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>11.75</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK24" t="n">
         <v>14.5</v>
@@ -3930,7 +3930,7 @@
         <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN24" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
@@ -710,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -722,16 +722,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
@@ -841,49 +841,49 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.73</v>
       </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="T3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V3" t="n">
         <v>1.07</v>
@@ -895,37 +895,37 @@
         <v>1.05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" t="n">
         <v>4.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
@@ -934,13 +934,13 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -952,7 +952,7 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>101</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1026,10 +1026,10 @@
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U4" t="n">
         <v>4.8</v>
@@ -1056,10 +1056,10 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1089,16 +1089,16 @@
         <v>5.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
       </c>
       <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1139,76 +1139,76 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC5" t="n">
         <v>5.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5</v>
-      </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
@@ -1223,31 +1223,31 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>51</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1318,10 +1318,10 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S6" t="n">
         <v>3.1</v>
@@ -1333,7 +1333,7 @@
         <v>5.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1354,49 +1354,49 @@
         <v>1.53</v>
       </c>
       <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>6</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1437,34 +1437,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>1.78</v>
@@ -1497,58 +1497,58 @@
         <v>2.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>101</v>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1604,10 +1604,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1628,10 +1628,10 @@
         <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
         <v>4.33</v>
@@ -1655,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1664,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>19</v>
@@ -1735,28 +1735,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1765,19 +1765,19 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
@@ -1801,16 +1801,16 @@
         <v>1.67</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>34</v>
@@ -1834,22 +1834,22 @@
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -1884,110 +1884,110 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="L10" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>12</v>
       </c>
-      <c r="AE10" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AF10" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AQ10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2025,110 +2025,110 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>2.55</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.72</v>
       </c>
       <c r="L11" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P11" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="X11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Y11" t="n">
         <v>1.72</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="n">
         <v>37</v>
       </c>
       <c r="AH11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2166,19 +2166,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
@@ -2190,30 +2190,30 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y12" t="n">
         <v>1.3</v>
@@ -2222,10 +2222,10 @@
         <v>3.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2243,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2267,7 +2267,7 @@
         <v>9.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2311,46 +2311,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="I13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="L13" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="X13" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -2361,16 +2361,16 @@
         <v>1.98</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="n">
         <v>45</v>
@@ -2379,37 +2379,37 @@
         <v>45</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AN13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO13" t="n">
         <v>8.25</v>
       </c>
-      <c r="AO13" t="n">
-        <v>8</v>
-      </c>
       <c r="AP13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
       </c>
       <c r="AS13" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
@@ -2444,13 +2444,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J14" t="n">
         <v>6.5</v>
@@ -2464,85 +2464,85 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE14" t="n">
         <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>90</v>
       </c>
-      <c r="AH14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>100</v>
-      </c>
       <c r="AM14" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2577,90 +2577,90 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="L15" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="X15" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF15" t="n">
         <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH15" t="n">
         <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO15" t="n">
         <v>8.25</v>
@@ -2669,13 +2669,13 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
@@ -2725,7 +2725,7 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2742,10 +2742,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2756,7 +2756,7 @@
         <v>1.33</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Z16" t="n">
         <v>2.75</v>
@@ -2786,7 +2786,7 @@
         <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>6.5</v>
@@ -2801,7 +2801,7 @@
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -2816,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17">
@@ -2851,68 +2851,68 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -2921,13 +2921,13 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>7</v>
@@ -2939,16 +2939,16 @@
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>17</v>
@@ -2957,7 +2957,7 @@
         <v>23</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -2992,28 +2992,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
@@ -3030,10 +3030,10 @@
         <v>2.3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W18" t="n">
         <v>2.38</v>
@@ -3042,7 +3042,7 @@
         <v>1.53</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Z18" t="n">
         <v>3.4</v>
@@ -3054,19 +3054,19 @@
         <v>2.38</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>23</v>
@@ -3084,10 +3084,10 @@
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3096,10 +3096,10 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS18" t="n">
         <v>101</v>
@@ -3137,98 +3137,102 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.05</v>
+      </c>
       <c r="S19" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="X19" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>9</v>
-      </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3237,13 +3241,13 @@
         <v>41</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20">
@@ -3278,22 +3282,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3310,45 +3314,45 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
         <v>34</v>
@@ -3369,19 +3373,19 @@
         <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>21</v>
       </c>
       <c r="AR20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS20" t="n">
         <v>251</v>
@@ -3422,7 +3426,7 @@
         <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>3.3</v>
@@ -3437,10 +3441,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
@@ -3451,21 +3455,21 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Z21" t="n">
         <v>2.75</v>
@@ -3495,7 +3499,7 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
         <v>6.5</v>
@@ -3507,7 +3511,7 @@
         <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN21" t="n">
         <v>17</v>
@@ -3563,10 +3567,10 @@
         <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3578,16 +3582,16 @@
         <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -3600,13 +3604,13 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z22" t="n">
         <v>3</v>
@@ -3657,7 +3661,7 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
@@ -3701,110 +3705,110 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.3</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T23" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="X23" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK23" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO23" t="n">
         <v>12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>12.5</v>
       </c>
       <c r="AP23" t="n">
         <v>55</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS23" t="n">
         <v>200</v>
@@ -3842,50 +3846,50 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
         <v>4.25</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="X24" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="Y24" t="n">
         <v>1.29</v>
@@ -3894,61 +3898,61 @@
         <v>3.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AC24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD24" t="n">
         <v>9</v>
       </c>
-      <c r="AD24" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM24" t="n">
         <v>20</v>
       </c>
-      <c r="AI24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AN24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>90</v>
       </c>
       <c r="AQ24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AS24" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -710,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -734,16 +734,16 @@
         <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -752,16 +752,16 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC2" t="n">
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -782,7 +782,7 @@
         <v>6.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>81</v>
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -862,7 +862,7 @@
         <v>1.25</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.73</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
         <v>4.33</v>
@@ -883,10 +883,10 @@
         <v>1.2</v>
       </c>
       <c r="U3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>4.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
         <v>41</v>
@@ -934,10 +934,10 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
@@ -1437,34 +1437,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>1.78</v>
@@ -1479,7 +1479,7 @@
         <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="V7" t="n">
         <v>1.27</v>
@@ -1512,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
@@ -1521,10 +1521,10 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1536,16 +1536,16 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>51</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
@@ -1604,40 +1604,40 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y8" t="n">
         <v>1.53</v>
@@ -1658,10 +1658,10 @@
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1676,22 +1676,22 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1735,28 +1735,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1765,10 +1765,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>2.5</v>
@@ -1780,7 +1780,7 @@
         <v>4.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
@@ -1804,19 +1804,19 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
         <v>6.5</v>
@@ -1834,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -1884,110 +1884,110 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="I10" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1.72</v>
       </c>
       <c r="L10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="X10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y10" t="n">
         <v>1.72</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="n">
         <v>45</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>40</v>
       </c>
       <c r="AH10" t="n">
         <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>37</v>
       </c>
       <c r="AQ10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2025,22 +2025,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>2.55</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="K11" t="n">
         <v>1.72</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.18</v>
@@ -2052,7 +2052,7 @@
         <v>1.72</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -2077,28 +2077,28 @@
         <v>2.02</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AB11" t="n">
         <v>1.53</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="n">
         <v>4.35</v>
@@ -2113,22 +2113,22 @@
         <v>175</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2166,22 +2166,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2228,31 +2228,31 @@
         <v>2.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2261,16 +2261,16 @@
         <v>11</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>21</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2756,7 +2756,7 @@
         <v>1.33</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Z16" t="n">
         <v>2.75</v>
@@ -2768,16 +2768,16 @@
         <v>2</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
         <v>21</v>
@@ -2798,16 +2798,16 @@
         <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN16" t="n">
         <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>21</v>
@@ -2816,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2851,22 +2851,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2883,10 +2883,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
         <v>1.44</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z17" t="n">
         <v>3.25</v>
@@ -2909,10 +2909,10 @@
         <v>2.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -2942,22 +2942,22 @@
         <v>9.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>23</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -2998,54 +2998,54 @@
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="X18" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA18" t="n">
         <v>1.53</v>
@@ -3084,7 +3084,7 @@
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3102,7 +3102,7 @@
         <v>23</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -3282,28 +3282,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -3314,36 +3314,36 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
@@ -3370,10 +3370,10 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
         <v>10</v>
@@ -3469,7 +3469,7 @@
         <v>1.33</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Z21" t="n">
         <v>2.75</v>
@@ -3610,7 +3610,7 @@
         <v>1.36</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z22" t="n">
         <v>3</v>
@@ -3705,22 +3705,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L23" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3745,73 +3745,73 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X23" t="n">
         <v>1.55</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE23" t="n">
         <v>8.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AK23" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
         <v>29</v>
       </c>
       <c r="AS23" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
@@ -3846,101 +3846,101 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H24" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="I24" t="n">
         <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="L24" t="n">
         <v>4.85</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P24" t="n">
-        <v>4.65</v>
+        <v>5.2</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.75</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
         <v>37</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP24" t="n">
         <v>90</v>
@@ -3952,7 +3952,7 @@
         <v>35</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -862,7 +862,7 @@
         <v>1.25</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>4.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -937,7 +937,7 @@
         <v>151</v>
       </c>
       <c r="AM3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>2.88</v>
@@ -1026,10 +1026,10 @@
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
         <v>4.8</v>
@@ -1050,10 +1050,10 @@
         <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
@@ -1065,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>41</v>
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN4" t="n">
         <v>8</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.63</v>
@@ -1154,7 +1154,7 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1169,10 +1169,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>51</v>
@@ -1312,10 +1312,10 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
         <v>2.28</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1497,34 +1497,34 @@
         <v>2.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1533,19 +1533,19 @@
         <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>51</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1589,7 +1589,7 @@
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
@@ -1604,28 +1604,28 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
         <v>3.6</v>
@@ -1634,22 +1634,22 @@
         <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC8" t="n">
         <v>6</v>
@@ -1658,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1682,7 +1682,7 @@
         <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
@@ -1691,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1735,22 +1735,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -1765,28 +1765,28 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y9" t="n">
         <v>1.57</v>
@@ -1801,22 +1801,22 @@
         <v>1.67</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH9" t="n">
         <v>41</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>51</v>
       </c>
       <c r="AI9" t="n">
         <v>6.5</v>
@@ -1834,13 +1834,13 @@
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>21</v>
@@ -1884,47 +1884,47 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
         <v>1.72</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
         <v>1.09</v>
@@ -1936,58 +1936,58 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
         <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM10" t="n">
         <v>5.3</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP10" t="n">
         <v>37</v>
       </c>
       <c r="AQ10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2025,22 +2025,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
         <v>2.55</v>
       </c>
       <c r="I11" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
         <v>1.72</v>
       </c>
       <c r="L11" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.18</v>
@@ -2052,7 +2052,7 @@
         <v>1.72</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -2071,13 +2071,13 @@
         <v>1.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z11" t="n">
         <v>2.02</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AB11" t="n">
         <v>1.53</v>
@@ -2086,19 +2086,19 @@
         <v>6.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI11" t="n">
         <v>4.35</v>
@@ -2116,19 +2116,19 @@
         <v>5.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2172,7 +2172,7 @@
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2187,7 +2187,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2204,10 +2204,10 @@
         <v>2.35</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W12" t="n">
         <v>2.38</v>
@@ -2228,7 +2228,7 @@
         <v>2.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>19</v>
@@ -2246,7 +2246,7 @@
         <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>7.5</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2816,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -2851,71 +2851,75 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.85</v>
+      </c>
       <c r="W17" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="X17" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
         <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -2927,19 +2931,19 @@
         <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
@@ -2954,10 +2958,10 @@
         <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -2992,22 +2996,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3016,10 +3020,10 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -3048,55 +3052,55 @@
         <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AC18" t="n">
         <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH18" t="n">
         <v>26</v>
       </c>
-      <c r="AG18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
         <v>12</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>23</v>
@@ -3282,13 +3286,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3297,7 +3301,7 @@
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3306,18 +3310,18 @@
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3340,10 +3344,10 @@
         <v>1.83</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
@@ -3370,10 +3374,10 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>10</v>
@@ -3423,22 +3427,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3455,18 +3459,18 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y21" t="n">
         <v>1.4</v>
@@ -3484,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
@@ -3499,7 +3503,7 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>6.5</v>
@@ -3511,13 +3515,13 @@
         <v>51</v>
       </c>
       <c r="AM21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO21" t="n">
         <v>11</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
@@ -3564,34 +3568,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -3604,10 +3608,10 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y22" t="n">
         <v>1.36</v>
@@ -3622,16 +3626,16 @@
         <v>2.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
         <v>21</v>
@@ -3661,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
@@ -3846,22 +3850,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="H24" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="L24" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3870,89 +3874,89 @@
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T24" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="X24" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AQ24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR24" t="n">
         <v>35</v>
       </c>
       <c r="AS24" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -722,28 +722,28 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>2.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -862,7 +862,7 @@
         <v>1.25</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>4.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -937,7 +937,7 @@
         <v>151</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
@@ -949,7 +949,7 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -1008,10 +1008,10 @@
         <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1056,13 +1056,13 @@
         <v>1.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1074,13 +1074,13 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
@@ -1089,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1169,10 +1169,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1199,13 +1199,13 @@
         <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
@@ -1235,13 +1235,13 @@
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>51</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1321,7 +1321,7 @@
         <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
         <v>3.1</v>
@@ -1354,22 +1354,22 @@
         <v>1.53</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
         <v>11</v>
       </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
         <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>5</v>
@@ -1381,19 +1381,19 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="n">
         <v>6.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1479,10 +1479,10 @@
         <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
         <v>4.33</v>
@@ -1753,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1765,28 +1765,28 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" t="n">
         <v>1.57</v>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="K11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
         <v>2.02</v>
@@ -2057,24 +2057,24 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y11" t="n">
         <v>1.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA11" t="n">
         <v>2.32</v>
@@ -2083,28 +2083,28 @@
         <v>1.53</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="n">
         <v>45</v>
       </c>
-      <c r="AG11" t="n">
-        <v>40</v>
-      </c>
       <c r="AH11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2113,22 +2113,22 @@
         <v>175</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP11" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2577,22 +2577,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>1.65</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K15" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2621,19 +2621,19 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AB15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AC15" t="n">
         <v>14.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>70</v>
@@ -2642,25 +2642,25 @@
         <v>37</v>
       </c>
       <c r="AH15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO15" t="n">
         <v>8.25</v>
@@ -2675,7 +2675,7 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
@@ -2996,28 +2996,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3028,10 +3028,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
@@ -3040,10 +3040,10 @@
         <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y18" t="n">
         <v>1.33</v>
@@ -3052,55 +3052,55 @@
         <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AC18" t="n">
         <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>12</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>23</v>
@@ -3568,28 +3568,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -3626,16 +3626,16 @@
         <v>2.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
         <v>21</v>
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>19</v>
@@ -3850,22 +3850,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3877,7 +3877,7 @@
         <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
         <v>1.35</v>
       </c>
       <c r="T24" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
         <v>1.85</v>
       </c>
       <c r="X24" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Y24" t="n">
         <v>1.22</v>
@@ -3902,61 +3902,61 @@
         <v>3.85</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE24" t="n">
         <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AQ24" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AS24" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -716,16 +716,16 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -847,7 +847,7 @@
         <v>2.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -865,16 +865,16 @@
         <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
         <v>4.33</v>
@@ -883,7 +883,7 @@
         <v>1.2</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.06</v>
@@ -895,10 +895,10 @@
         <v>1.05</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA3" t="n">
         <v>3.25</v>
@@ -907,7 +907,7 @@
         <v>1.33</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD3" t="n">
         <v>10</v>
@@ -931,10 +931,10 @@
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM3" t="n">
         <v>6</v>
@@ -993,25 +993,25 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1026,13 +1026,13 @@
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
@@ -1074,7 +1074,7 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
         <v>6.5</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2.6</v>
@@ -1157,10 +1157,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
@@ -1238,7 +1238,7 @@
         <v>9.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1622,10 +1622,10 @@
         <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
         <v>3.6</v>
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
@@ -1750,7 +1750,7 @@
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1804,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -734,10 +734,10 @@
         <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -862,7 +862,7 @@
         <v>1.25</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>2.1</v>
@@ -871,10 +871,10 @@
         <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
         <v>4.33</v>
@@ -883,7 +883,7 @@
         <v>1.2</v>
       </c>
       <c r="U3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="V3" t="n">
         <v>1.06</v>
@@ -1008,22 +1008,22 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>2.7</v>
@@ -1032,16 +1032,16 @@
         <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Y4" t="n">
         <v>1.62</v>
@@ -1080,7 +1080,7 @@
         <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
@@ -1092,7 +1092,7 @@
         <v>7.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1157,10 +1157,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1169,10 +1169,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1214,7 +1214,7 @@
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1247,7 +1247,7 @@
         <v>51</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1324,10 +1324,10 @@
         <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U6" t="n">
         <v>5.4</v>
@@ -1336,16 +1336,16 @@
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AA6" t="n">
         <v>2.38</v>
@@ -1357,10 +1357,10 @@
         <v>5.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
@@ -1369,7 +1369,7 @@
         <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>5</v>
@@ -1387,13 +1387,13 @@
         <v>6.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1437,34 +1437,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>1.78</v>
@@ -1473,10 +1473,10 @@
         <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
         <v>3.6</v>
@@ -1497,58 +1497,58 @@
         <v>2.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC7" t="n">
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>101</v>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1604,10 +1604,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1646,10 +1646,10 @@
         <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC8" t="n">
         <v>6</v>
@@ -1670,13 +1670,13 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
         <v>67</v>
@@ -1753,10 +1753,10 @@
         <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1765,22 +1765,22 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
@@ -2577,22 +2577,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2600,7 +2600,7 @@
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -2624,19 +2624,19 @@
         <v>1.62</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="n">
         <v>37</v>
@@ -2645,34 +2645,34 @@
         <v>37</v>
       </c>
       <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK15" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN15" t="n">
         <v>8.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>12.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -847,7 +847,7 @@
         <v>2.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -859,16 +859,16 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
         <v>3.5</v>
@@ -895,10 +895,10 @@
         <v>1.05</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AA3" t="n">
         <v>3.25</v>
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1026,28 +1026,28 @@
         <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA4" t="n">
         <v>2.38</v>
@@ -1056,10 +1056,10 @@
         <v>1.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1074,13 +1074,13 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
@@ -1089,10 +1089,10 @@
         <v>5</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1169,16 +1169,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
         <v>4.2</v>
@@ -1187,10 +1187,10 @@
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y5" t="n">
         <v>1.57</v>
@@ -1208,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1235,10 +1235,10 @@
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1247,7 +1247,7 @@
         <v>51</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1291,10 +1291,10 @@
         <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1303,25 +1303,25 @@
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>3.4</v>
@@ -1330,10 +1330,10 @@
         <v>1.33</v>
       </c>
       <c r="U6" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1342,16 +1342,16 @@
         <v>1.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC6" t="n">
         <v>5.5</v>
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
         <v>29</v>
@@ -1372,13 +1372,13 @@
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>101</v>
@@ -1396,7 +1396,7 @@
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1586,28 +1586,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1640,10 +1640,10 @@
         <v>1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA8" t="n">
         <v>2.1</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>67</v>
@@ -1691,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1774,13 +1774,13 @@
         <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -2586,13 +2586,13 @@
         <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
         <v>2.37</v>
       </c>
       <c r="L15" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2605,18 +2605,18 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="X15" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -2627,16 +2627,16 @@
         <v>2.05</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG15" t="n">
         <v>37</v>
@@ -2648,25 +2648,25 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO15" t="n">
         <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>12.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1169,28 +1169,28 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="V5" t="n">
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y5" t="n">
         <v>1.57</v>
@@ -1199,22 +1199,22 @@
         <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC5" t="n">
         <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1229,16 +1229,16 @@
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1247,7 +1247,7 @@
         <v>51</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
         <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.73</v>
@@ -1318,34 +1318,34 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U6" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AA6" t="n">
         <v>2.5</v>
@@ -1366,7 +1366,7 @@
         <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1384,7 +1384,7 @@
         <v>101</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
@@ -1396,7 +1396,7 @@
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1735,22 +1735,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -1759,22 +1759,22 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.44</v>
       </c>
       <c r="U9" t="n">
         <v>4.1</v>
@@ -1810,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
         <v>34</v>
@@ -1825,16 +1825,16 @@
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>67</v>
       </c>
       <c r="AM9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>10</v>
@@ -2444,22 +2444,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="J14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L14" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2467,82 +2467,82 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="X14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AC14" t="n">
         <v>21</v>
       </c>
       <c r="AD14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH14" t="n">
         <v>55</v>
       </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>70</v>
       </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>90</v>
-      </c>
       <c r="AM14" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS14" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -2577,22 +2577,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K15" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L15" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2600,82 +2600,82 @@
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="X15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
         <v>37</v>
       </c>
       <c r="AH15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>8.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16">

--- a/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,7 +1706,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2oKzt7dm</t>
+          <t>MF8SYCgo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1716,146 +1716,138 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.98</v>
-      </c>
+        <v>1.91</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
         <v>2.5</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="AB9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI9" t="n">
         <v>4.1</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AS9" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MF8SYCgo</t>
+          <t>jXHdvZVN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1865,7 +1857,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1875,119 +1867,119 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.52</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.85</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="K10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="X10" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
         <v>13</v>
       </c>
-      <c r="AE10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="n">
         <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP10" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AR10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -1996,7 +1988,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jXHdvZVN</t>
+          <t>Sd7Yco64</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2006,129 +1998,133 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Jamshedpur</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.17</v>
       </c>
-      <c r="N11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.7</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.88</v>
+      </c>
       <c r="W11" t="n">
-        <v>5.6</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>15</v>
       </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AR11" t="n">
         <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>60</v>
       </c>
       <c r="AS11" t="n">
         <v>101</v>
@@ -2137,7 +2133,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sd7Yco64</t>
+          <t>0OGeOprm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2147,53 +2143,49 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jamshedpur</t>
+          <t>Atletico La Paz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17</v>
-      </c>
+        <v>2.02</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -2201,88 +2193,80 @@
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
         <v>2.35</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="X12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3.4</v>
-      </c>
+        <v>1.47</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0OGeOprm</t>
+          <t>hIgU7Pc6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2292,7 +2276,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2302,31 +2286,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atletico La Paz</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L13" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2334,7 +2318,7 @@
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -2355,67 +2339,67 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AC13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AN13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO13" t="n">
         <v>8</v>
       </c>
-      <c r="AO13" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AP13" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hIgU7Pc6</t>
+          <t>lpmw63SI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2435,120 +2419,120 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.7</v>
+        <v>4.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>4.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lpmw63SI</t>
+          <t>p6gI4EEL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2558,130 +2542,138 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.35</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>4.35</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+        <v>3.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.5</v>
+      </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="T15" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+        <v>1.33</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.75</v>
+      </c>
       <c r="AA15" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AB15" t="n">
         <v>2</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
         <v>26</v>
       </c>
-      <c r="AE15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>p6gI4EEL</t>
+          <t>Oj596zp9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2691,7 +2683,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2701,128 +2693,132 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.85</v>
+      </c>
       <c r="W16" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="X16" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
         <v>13</v>
       </c>
-      <c r="AE16" t="n">
-        <v>10</v>
-      </c>
       <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
         <v>23</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>29</v>
       </c>
       <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN16" t="n">
         <v>11</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13</v>
-      </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR16" t="n">
         <v>21</v>
       </c>
-      <c r="AR16" t="n">
-        <v>29</v>
-      </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Oj596zp9</t>
+          <t>fuulahxq</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2832,7 +2828,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2842,31 +2838,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2875,36 +2871,36 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA17" t="n">
         <v>1.53</v>
@@ -2913,28 +2909,28 @@
         <v>2.38</v>
       </c>
       <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
         <v>15</v>
       </c>
-      <c r="AD17" t="n">
-        <v>21</v>
-      </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
         <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="n">
         <v>12</v>
@@ -2943,22 +2939,22 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO17" t="n">
         <v>10</v>
       </c>
-      <c r="AN17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9</v>
-      </c>
       <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>19</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>15</v>
-      </c>
       <c r="AR17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS17" t="n">
         <v>126</v>
@@ -2967,7 +2963,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fuulahxq</t>
+          <t>dEGjo99C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2977,142 +2973,142 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.2</v>
       </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="Y18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>2</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AB18" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>19</v>
-      </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dEGjo99C</t>
+          <t>4vKbqmvP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3122,7 +3118,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3132,132 +3128,128 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.05</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4vKbqmvP</t>
+          <t>GIZEowLh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3267,7 +3259,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3277,95 +3269,95 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="n">
         <v>2.88</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
@@ -3374,31 +3366,31 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GIZEowLh</t>
+          <t>CpTNqHk5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3418,128 +3410,128 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.1</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="X21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AB21" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG21" t="n">
         <v>21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>6.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>10</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR21" t="n">
         <v>26</v>
       </c>
-      <c r="AR21" t="n">
-        <v>34</v>
-      </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CpTNqHk5</t>
+          <t>4GmbClP9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3549,138 +3541,138 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Al Urooba</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Z22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO22" t="n">
         <v>13</v>
       </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4GmbClP9</t>
+          <t>QVy7ASgM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3690,7 +3682,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3700,262 +3692,121 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Urooba</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="K23" t="n">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="L23" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="T23" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="X23" t="n">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
         <v>9.75</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
         <v>10.25</v>
       </c>
-      <c r="AE23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>7.7</v>
+        <v>10.75</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AR23" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AS23" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>QVy7ASgM</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Al Ain</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Ittihad Kalba</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS24" t="n">
         <v>200</v>
       </c>
     </row>
